--- a/target/test-classes/TestData/TestData.xlsx
+++ b/target/test-classes/TestData/TestData.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\Calc Jekins code 1111\JENCALC\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\OneDrive\Documents\PROJECTS\Jenkins(Priyanka)\Jenkins\PulsESGAutomationProject\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D8DECB-A953-477A-A149-F488DDE6CBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157D8922-A237-4056-80BE-2B16158EE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3852,55 +3863,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="94.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="38.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.08984375" customWidth="1"/>
-    <col min="9" max="9" width="31.54296875" customWidth="1"/>
-    <col min="10" max="10" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="100.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.453125" customWidth="1"/>
-    <col min="17" max="17" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.6328125" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="100.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.44140625" customWidth="1"/>
+    <col min="17" max="17" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.6640625" customWidth="1"/>
     <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.453125" customWidth="1"/>
+    <col min="20" max="20" width="37.44140625" customWidth="1"/>
     <col min="21" max="21" width="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.6328125" customWidth="1"/>
+    <col min="22" max="22" width="33.6640625" customWidth="1"/>
     <col min="23" max="23" width="34" customWidth="1"/>
-    <col min="24" max="24" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.36328125" customWidth="1"/>
-    <col min="26" max="26" width="14.36328125" customWidth="1"/>
+    <col min="24" max="24" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.33203125" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="25.453125" customWidth="1"/>
-    <col min="37" max="37" width="23.6328125" customWidth="1"/>
-    <col min="38" max="38" width="17.6328125" customWidth="1"/>
-    <col min="39" max="39" width="21.6328125" customWidth="1"/>
+    <col min="36" max="36" width="25.44140625" customWidth="1"/>
+    <col min="37" max="37" width="23.6640625" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="21.6640625" customWidth="1"/>
     <col min="40" max="41" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>113</v>
       </c>
@@ -3957,7 +3968,7 @@
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5" t="s">
         <v>119</v>
@@ -4012,7 +4023,7 @@
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4049,7 +4060,7 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
     </row>
-    <row r="4" spans="1:35" ht="20.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>113</v>
       </c>
@@ -4096,7 +4107,7 @@
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>124</v>
@@ -4141,7 +4152,7 @@
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4178,7 +4189,7 @@
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>125</v>
       </c>
@@ -4243,7 +4254,7 @@
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
         <v>135</v>
@@ -4306,7 +4317,7 @@
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -4343,7 +4354,7 @@
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
     </row>
-    <row r="10" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>140</v>
       </c>
@@ -4408,7 +4419,7 @@
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="16" t="s">
         <v>145</v>
@@ -4471,7 +4482,7 @@
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -4508,7 +4519,7 @@
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>150</v>
       </c>
@@ -4575,7 +4586,7 @@
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="5" t="s">
         <v>153</v>
@@ -4640,7 +4651,7 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4677,7 +4688,7 @@
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
     </row>
-    <row r="16" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>157</v>
       </c>
@@ -4760,7 +4771,7 @@
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="5" t="s">
         <v>159</v>
@@ -4841,7 +4852,7 @@
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4878,7 +4889,7 @@
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
     </row>
-    <row r="19" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>170</v>
       </c>
@@ -4925,7 +4936,7 @@
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="16" t="s">
         <v>172</v>
@@ -4970,7 +4981,7 @@
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="16"/>
       <c r="C21" s="24"/>
@@ -5007,7 +5018,7 @@
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="23" t="s">
         <v>173</v>
       </c>
@@ -5054,7 +5065,7 @@
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="16" t="s">
         <v>175</v>
@@ -5099,7 +5110,7 @@
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -5136,7 +5147,7 @@
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>176</v>
       </c>
@@ -5185,7 +5196,7 @@
       <c r="AH25" s="3"/>
       <c r="AI25" s="3"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="16" t="s">
         <v>178</v>
@@ -5232,7 +5243,7 @@
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -5269,7 +5280,7 @@
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>180</v>
       </c>
@@ -5318,7 +5329,7 @@
       <c r="AH28" s="3"/>
       <c r="AI28" s="3"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="16" t="s">
         <v>182</v>
@@ -5365,7 +5376,7 @@
       <c r="AH29" s="3"/>
       <c r="AI29" s="3"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -5402,7 +5413,7 @@
       <c r="AH30" s="3"/>
       <c r="AI30" s="3"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>200</v>
       </c>
@@ -5471,7 +5482,7 @@
       <c r="AH31" s="3"/>
       <c r="AI31" s="3"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
         <v>190</v>
@@ -5538,7 +5549,7 @@
       <c r="AH32" s="3"/>
       <c r="AI32" s="3"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="5" t="s">
         <v>197</v>
@@ -5605,7 +5616,7 @@
       <c r="AH33" s="3"/>
       <c r="AI33" s="3"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5642,7 +5653,7 @@
       <c r="AH34" s="3"/>
       <c r="AI34" s="3"/>
     </row>
-    <row r="35" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>233</v>
       </c>
@@ -5747,7 +5758,7 @@
       </c>
       <c r="AI35" s="3"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
         <v>220</v>
@@ -5850,7 +5861,7 @@
       </c>
       <c r="AI36" s="3"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
         <v>230</v>
@@ -5953,7 +5964,7 @@
       </c>
       <c r="AI37" s="3"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5990,7 +6001,7 @@
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -6028,7 +6039,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="26">
         <f ca="1">NOW()</f>
-        <v>45611.672261458334</v>
+        <v>45631.446721643515</v>
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
@@ -6040,7 +6051,7 @@
       <c r="AH39" s="3"/>
       <c r="AI39" s="3"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
         <v>236</v>
@@ -6085,7 +6096,7 @@
       <c r="AH40" s="3"/>
       <c r="AI40" s="3"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
         <v>593</v>
@@ -6130,7 +6141,7 @@
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
@@ -6167,7 +6178,7 @@
       <c r="AH42" s="3"/>
       <c r="AI42" s="3"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -6218,7 +6229,7 @@
       <c r="AH43" s="3"/>
       <c r="AI43" s="3"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="s">
         <v>238</v>
@@ -6265,7 +6276,7 @@
       <c r="AH44" s="3"/>
       <c r="AI44" s="3"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
         <v>591</v>
@@ -6312,7 +6323,7 @@
       <c r="AH45" s="3"/>
       <c r="AI45" s="3"/>
     </row>
-    <row r="46" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
@@ -6349,7 +6360,7 @@
       <c r="AH46" s="3"/>
       <c r="AI46" s="3"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -6422,7 +6433,7 @@
       <c r="AH47" s="3"/>
       <c r="AI47" s="3"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
         <v>241</v>
@@ -6487,7 +6498,7 @@
       <c r="AH48" s="3"/>
       <c r="AI48" s="3"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
         <v>590</v>
@@ -6552,7 +6563,7 @@
       <c r="AH49" s="3"/>
       <c r="AI49" s="3"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
@@ -6589,7 +6600,7 @@
       <c r="AH50" s="3"/>
       <c r="AI50" s="3"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
@@ -6662,7 +6673,7 @@
       <c r="AH51" s="3"/>
       <c r="AI51" s="3"/>
     </row>
-    <row r="52" spans="1:35" ht="20.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" ht="20.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="5" t="s">
         <v>246</v>
@@ -6727,7 +6738,7 @@
       <c r="AH52" s="3"/>
       <c r="AI52" s="3"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="s">
         <v>589</v>
@@ -6792,7 +6803,7 @@
       <c r="AH53" s="3"/>
       <c r="AI53" s="3"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
@@ -6829,7 +6840,7 @@
       <c r="AH54" s="3"/>
       <c r="AI54" s="3"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>28</v>
       </c>
@@ -6902,7 +6913,7 @@
       <c r="AH55" s="3"/>
       <c r="AI55" s="3"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="5" t="s">
         <v>248</v>
@@ -6967,7 +6978,7 @@
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="5" t="s">
         <v>588</v>
@@ -7032,7 +7043,7 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
     </row>
-    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -7069,7 +7080,7 @@
       <c r="AH58" s="3"/>
       <c r="AI58" s="3"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -7144,7 +7155,7 @@
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="5" t="s">
         <v>254</v>
@@ -7209,7 +7220,7 @@
       <c r="AH60" s="3"/>
       <c r="AI60" s="3"/>
     </row>
-    <row r="61" spans="1:35" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="5" t="s">
         <v>587</v>
@@ -7274,7 +7285,7 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -7311,7 +7322,7 @@
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>29</v>
       </c>
@@ -7384,7 +7395,7 @@
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
     </row>
-    <row r="64" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="5" t="s">
         <v>258</v>
@@ -7455,7 +7466,7 @@
       <c r="AH64" s="3"/>
       <c r="AI64" s="3"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="5" t="s">
         <v>586</v>
@@ -7526,7 +7537,7 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="3"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -7563,7 +7574,7 @@
       <c r="AH66" s="3"/>
       <c r="AI66" s="3"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>30</v>
       </c>
@@ -7636,7 +7647,7 @@
       <c r="AH67" s="3"/>
       <c r="AI67" s="3"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="5" t="s">
         <v>261</v>
@@ -7707,7 +7718,7 @@
       <c r="AH68" s="3"/>
       <c r="AI68" s="3"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="5" t="s">
         <v>585</v>
@@ -7778,7 +7789,7 @@
       <c r="AH69" s="3"/>
       <c r="AI69" s="3"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -7815,7 +7826,7 @@
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>31</v>
       </c>
@@ -7888,7 +7899,7 @@
       <c r="AH71" s="3"/>
       <c r="AI71" s="3"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="5" t="s">
         <v>583</v>
@@ -7959,7 +7970,7 @@
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="5" t="s">
         <v>584</v>
@@ -8030,7 +8041,7 @@
       <c r="AH73" s="3"/>
       <c r="AI73" s="3"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -8067,7 +8078,7 @@
       <c r="AH74" s="3"/>
       <c r="AI74" s="3"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>32</v>
       </c>
@@ -8140,7 +8151,7 @@
       <c r="AH75" s="3"/>
       <c r="AI75" s="3"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="5" t="s">
         <v>263</v>
@@ -8211,7 +8222,7 @@
       <c r="AH76" s="3"/>
       <c r="AI76" s="3"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="5" t="s">
         <v>581</v>
@@ -8282,7 +8293,7 @@
       <c r="AH77" s="3"/>
       <c r="AI77" s="3"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -8319,7 +8330,7 @@
       <c r="AH78" s="3"/>
       <c r="AI78" s="3"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>43</v>
       </c>
@@ -8392,7 +8403,7 @@
       <c r="AH79" s="3"/>
       <c r="AI79" s="3"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="5" t="s">
         <v>265</v>
@@ -8463,7 +8474,7 @@
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="5" t="s">
         <v>580</v>
@@ -8534,7 +8545,7 @@
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -8571,7 +8582,7 @@
       <c r="AH82" s="3"/>
       <c r="AI82" s="3"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>58</v>
       </c>
@@ -8644,7 +8655,7 @@
       <c r="AH83" s="3"/>
       <c r="AI83" s="3"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="5" t="s">
         <v>267</v>
@@ -8715,7 +8726,7 @@
       <c r="AH84" s="3"/>
       <c r="AI84" s="3"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="5" t="s">
         <v>579</v>
@@ -8786,7 +8797,7 @@
       <c r="AH85" s="3"/>
       <c r="AI85" s="3"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -8823,7 +8834,7 @@
       <c r="AH86" s="3"/>
       <c r="AI86" s="3"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>59</v>
       </c>
@@ -8902,7 +8913,7 @@
       <c r="AH87" s="3"/>
       <c r="AI87" s="3"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="5" t="s">
         <v>270</v>
@@ -8973,7 +8984,7 @@
       <c r="AH88" s="3"/>
       <c r="AI88" s="3"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="5" t="s">
         <v>837</v>
@@ -9044,7 +9055,7 @@
       <c r="AH89" s="3"/>
       <c r="AI89" s="3"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -9081,7 +9092,7 @@
       <c r="AH90" s="3"/>
       <c r="AI90" s="3"/>
     </row>
-    <row r="91" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>60</v>
       </c>
@@ -9188,7 +9199,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="5" t="s">
         <v>281</v>
@@ -9277,7 +9288,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="5" t="s">
         <v>578</v>
@@ -9366,7 +9377,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -9403,7 +9414,7 @@
       <c r="AH94" s="3"/>
       <c r="AI94" s="3"/>
     </row>
-    <row r="95" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>61</v>
       </c>
@@ -9508,7 +9519,7 @@
       </c>
       <c r="AI95" s="1"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="5" t="s">
         <v>286</v>
@@ -9595,7 +9606,7 @@
       </c>
       <c r="AI96" s="5"/>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="5" t="s">
         <v>577</v>
@@ -9682,7 +9693,7 @@
       </c>
       <c r="AI97" s="5"/>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -9719,7 +9730,7 @@
       <c r="AH98" s="3"/>
       <c r="AI98" s="3"/>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>62</v>
       </c>
@@ -9802,7 +9813,7 @@
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="5" t="s">
         <v>287</v>
@@ -9873,7 +9884,7 @@
       <c r="AH100" s="5"/>
       <c r="AI100" s="5"/>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="5" t="s">
         <v>576</v>
@@ -9944,7 +9955,7 @@
       <c r="AH101" s="5"/>
       <c r="AI101" s="5"/>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="3"/>
       <c r="C102" s="4"/>
@@ -9981,7 +9992,7 @@
       <c r="AH102" s="3"/>
       <c r="AI102" s="3"/>
     </row>
-    <row r="103" spans="1:46" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:46" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>63</v>
       </c>
@@ -10118,7 +10129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:46" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:46" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="51"/>
       <c r="B104" s="52" t="s">
         <v>397</v>
@@ -10253,7 +10264,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="7"/>
       <c r="C105" s="19"/>
@@ -10299,7 +10310,7 @@
       <c r="AQ105" s="82"/>
       <c r="AR105" s="82"/>
     </row>
-    <row r="106" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="48" t="s">
         <v>64</v>
       </c>
@@ -10439,7 +10450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A107" s="51"/>
       <c r="B107" s="52" t="s">
         <v>865</v>
@@ -10577,7 +10588,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="108" spans="1:46" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:46" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -10614,7 +10625,7 @@
       <c r="AH108" s="7"/>
       <c r="AI108" s="7"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A109" s="48" t="s">
         <v>65</v>
       </c>
@@ -10712,7 +10723,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A110" s="51"/>
       <c r="B110" s="52" t="s">
         <v>401</v>
@@ -10808,7 +10819,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="1:46" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:46" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -10845,7 +10856,7 @@
       <c r="AH111" s="7"/>
       <c r="AI111" s="7"/>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A112" s="48" t="s">
         <v>65</v>
       </c>
@@ -10943,7 +10954,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A113" s="51"/>
       <c r="B113" s="52" t="s">
         <v>402</v>
@@ -11039,7 +11050,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -11076,7 +11087,7 @@
       <c r="AH114" s="7"/>
       <c r="AI114" s="7"/>
     </row>
-    <row r="115" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>66</v>
       </c>
@@ -11178,7 +11189,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A116" s="51"/>
       <c r="B116" s="52" t="s">
         <v>405</v>
@@ -11278,7 +11289,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -11315,7 +11326,7 @@
       <c r="AH117" s="7"/>
       <c r="AI117" s="7"/>
     </row>
-    <row r="118" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>102</v>
       </c>
@@ -11417,7 +11428,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
     </row>
-    <row r="119" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A119" s="51"/>
       <c r="B119" s="52" t="s">
         <v>407</v>
@@ -11517,7 +11528,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -11554,7 +11565,7 @@
       <c r="AH120" s="7"/>
       <c r="AI120" s="7"/>
     </row>
-    <row r="121" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>67</v>
       </c>
@@ -11644,7 +11655,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A122" s="51"/>
       <c r="B122" s="52" t="s">
         <v>411</v>
@@ -11732,7 +11743,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -11769,7 +11780,7 @@
       <c r="AH123" s="7"/>
       <c r="AI123" s="7"/>
     </row>
-    <row r="124" spans="1:41" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:41" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="48" t="s">
         <v>68</v>
       </c>
@@ -11861,7 +11872,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A125" s="51"/>
       <c r="B125" s="52" t="s">
         <v>413</v>
@@ -11951,7 +11962,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -11988,7 +11999,7 @@
       <c r="AH126" s="7"/>
       <c r="AI126" s="7"/>
     </row>
-    <row r="127" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>70</v>
       </c>
@@ -12113,7 +12124,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="128" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A128" s="51"/>
       <c r="B128" s="52" t="s">
         <v>380</v>
@@ -12236,7 +12247,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="129" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -12273,7 +12284,7 @@
       <c r="AH129" s="7"/>
       <c r="AI129" s="7"/>
     </row>
-    <row r="130" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A130" s="48" t="s">
         <v>73</v>
       </c>
@@ -12398,7 +12409,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="131" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A131" s="51"/>
       <c r="B131" s="52" t="s">
         <v>382</v>
@@ -12521,7 +12532,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="132" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -12558,7 +12569,7 @@
       <c r="AH132" s="7"/>
       <c r="AI132" s="7"/>
     </row>
-    <row r="133" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>100</v>
       </c>
@@ -12650,7 +12661,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A134" s="51"/>
       <c r="B134" s="52" t="s">
         <v>386</v>
@@ -12740,7 +12751,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -12777,7 +12788,7 @@
       <c r="AH135" s="7"/>
       <c r="AI135" s="7"/>
     </row>
-    <row r="136" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A136" s="48" t="s">
         <v>103</v>
       </c>
@@ -12861,7 +12872,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A137" s="51"/>
       <c r="B137" s="52" t="s">
         <v>384</v>
@@ -12943,7 +12954,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -12980,7 +12991,7 @@
       <c r="AH138" s="7"/>
       <c r="AI138" s="7"/>
     </row>
-    <row r="139" spans="1:41" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:41" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="48" t="s">
         <v>365</v>
       </c>
@@ -13072,7 +13083,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A140" s="51"/>
       <c r="B140" s="52" t="s">
         <v>388</v>
@@ -13162,7 +13173,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -13199,7 +13210,7 @@
       <c r="AH141" s="7"/>
       <c r="AI141" s="7"/>
     </row>
-    <row r="142" spans="1:41" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:41" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>183</v>
       </c>
@@ -13295,7 +13306,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A143" s="51"/>
       <c r="B143" s="52" t="s">
         <v>390</v>
@@ -13389,7 +13400,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -13426,7 +13437,7 @@
       <c r="AH144" s="3"/>
       <c r="AI144" s="3"/>
     </row>
-    <row r="145" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="96" t="s">
         <v>69</v>
       </c>
@@ -13521,7 +13532,7 @@
       <c r="AH145" s="3"/>
       <c r="AI145" s="3"/>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A146" s="98"/>
       <c r="B146" s="99" t="s">
         <v>378</v>
@@ -13614,7 +13625,7 @@
       <c r="AH146" s="3"/>
       <c r="AI146" s="3"/>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -13651,7 +13662,7 @@
       <c r="AH147" s="3"/>
       <c r="AI147" s="3"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>62</v>
       </c>
@@ -13736,7 +13747,7 @@
       <c r="AH148" s="3"/>
       <c r="AI148" s="3"/>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="5" t="s">
         <v>454</v>
@@ -13815,7 +13826,7 @@
       <c r="AH149" s="3"/>
       <c r="AI149" s="3"/>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -13852,7 +13863,7 @@
       <c r="AH150" s="3"/>
       <c r="AI150" s="3"/>
     </row>
-    <row r="151" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>63</v>
       </c>
@@ -13933,7 +13944,7 @@
       <c r="AH151" s="3"/>
       <c r="AI151" s="3"/>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="5" t="s">
         <v>471</v>
@@ -14010,7 +14021,7 @@
       <c r="AH152" s="3"/>
       <c r="AI152" s="3"/>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -14047,7 +14058,7 @@
       <c r="AH153" s="3"/>
       <c r="AI153" s="3"/>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>63</v>
       </c>
@@ -14140,7 +14151,7 @@
       <c r="AH154" s="3"/>
       <c r="AI154" s="3"/>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="5" t="s">
         <v>486</v>
@@ -14231,7 +14242,7 @@
       <c r="AH155" s="3"/>
       <c r="AI155" s="3"/>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="5" t="s">
         <v>493</v>
@@ -14322,7 +14333,7 @@
       <c r="AH156" s="3"/>
       <c r="AI156" s="3"/>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -14359,7 +14370,7 @@
       <c r="AH157" s="3"/>
       <c r="AI157" s="3"/>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>63</v>
       </c>
@@ -14452,7 +14463,7 @@
       <c r="AH158" s="3"/>
       <c r="AI158" s="3"/>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="5" t="s">
         <v>496</v>
@@ -14543,7 +14554,7 @@
       <c r="AH159" s="3"/>
       <c r="AI159" s="3"/>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="5" t="s">
         <v>498</v>
@@ -14634,7 +14645,7 @@
       <c r="AH160" s="3"/>
       <c r="AI160" s="3"/>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -14671,7 +14682,7 @@
       <c r="AH161" s="3"/>
       <c r="AI161" s="3"/>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>63</v>
       </c>
@@ -14746,7 +14757,7 @@
       <c r="AH162" s="3"/>
       <c r="AI162" s="3"/>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="5" t="s">
         <v>503</v>
@@ -14815,7 +14826,7 @@
       <c r="AH163" s="3"/>
       <c r="AI163" s="3"/>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -14852,7 +14863,7 @@
       <c r="AH164" s="3"/>
       <c r="AI164" s="3"/>
     </row>
-    <row r="165" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>63</v>
       </c>
@@ -14951,7 +14962,7 @@
       <c r="AH165" s="3"/>
       <c r="AI165" s="3"/>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="5" t="s">
         <v>510</v>
@@ -15046,7 +15057,7 @@
       <c r="AH166" s="3"/>
       <c r="AI166" s="3"/>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -15083,7 +15094,7 @@
       <c r="AH167" s="3"/>
       <c r="AI167" s="3"/>
     </row>
-    <row r="168" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>63</v>
       </c>
@@ -15158,7 +15169,7 @@
       <c r="AH168" s="3"/>
       <c r="AI168" s="3"/>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="5" t="s">
         <v>520</v>
@@ -15231,7 +15242,7 @@
       <c r="AH169" s="3"/>
       <c r="AI169" s="3"/>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -15268,7 +15279,7 @@
       <c r="AH170" s="3"/>
       <c r="AI170" s="3"/>
     </row>
-    <row r="171" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>63</v>
       </c>
@@ -15353,7 +15364,7 @@
       <c r="AH171" s="3"/>
       <c r="AI171" s="3"/>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="5" t="s">
         <v>533</v>
@@ -15436,7 +15447,7 @@
       <c r="AH172" s="3"/>
       <c r="AI172" s="3"/>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -15473,7 +15484,7 @@
       <c r="AH173" s="3"/>
       <c r="AI173" s="3"/>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>63</v>
       </c>
@@ -15558,7 +15569,7 @@
       <c r="AH174" s="3"/>
       <c r="AI174" s="3"/>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="5" t="s">
         <v>540</v>
@@ -15641,7 +15652,7 @@
       <c r="AH175" s="3"/>
       <c r="AI175" s="3"/>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -15678,7 +15689,7 @@
       <c r="AH176" s="3"/>
       <c r="AI176" s="3"/>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>65</v>
       </c>
@@ -15741,7 +15752,7 @@
       <c r="AH177" s="3"/>
       <c r="AI177" s="3"/>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="5" t="s">
         <v>572</v>
@@ -15802,7 +15813,7 @@
       <c r="AH178" s="3"/>
       <c r="AI178" s="3"/>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="5" t="s">
         <v>571</v>
@@ -15863,7 +15874,7 @@
       <c r="AH179" s="3"/>
       <c r="AI179" s="3"/>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -15900,7 +15911,7 @@
       <c r="AH180" s="3"/>
       <c r="AI180" s="3"/>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>66</v>
       </c>
@@ -15961,7 +15972,7 @@
       <c r="AH181" s="3"/>
       <c r="AI181" s="3"/>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="5" t="s">
         <v>573</v>
@@ -16020,7 +16031,7 @@
       <c r="AH182" s="3"/>
       <c r="AI182" s="3"/>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="5" t="s">
         <v>570</v>
@@ -16079,7 +16090,7 @@
       <c r="AH183" s="3"/>
       <c r="AI183" s="3"/>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -16116,7 +16127,7 @@
       <c r="AH184" s="3"/>
       <c r="AI184" s="3"/>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>102</v>
       </c>
@@ -16177,7 +16188,7 @@
       <c r="AH185" s="3"/>
       <c r="AI185" s="3"/>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="5" t="s">
         <v>574</v>
@@ -16236,7 +16247,7 @@
       <c r="AH186" s="3"/>
       <c r="AI186" s="3"/>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="5" t="s">
         <v>569</v>
@@ -16295,7 +16306,7 @@
       <c r="AH187" s="3"/>
       <c r="AI187" s="3"/>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -16332,7 +16343,7 @@
       <c r="AH188" s="3"/>
       <c r="AI188" s="3"/>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>67</v>
       </c>
@@ -16397,7 +16408,7 @@
       <c r="AH189" s="3"/>
       <c r="AI189" s="3"/>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="5" t="s">
         <v>575</v>
@@ -16460,7 +16471,7 @@
       <c r="AH190" s="3"/>
       <c r="AI190" s="3"/>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="5" t="s">
         <v>568</v>
@@ -16523,7 +16534,7 @@
       <c r="AH191" s="3"/>
       <c r="AI191" s="3"/>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="5" t="s">
         <v>797</v>
@@ -16586,7 +16597,7 @@
       <c r="AH192" s="3"/>
       <c r="AI192" s="3"/>
     </row>
-    <row r="193" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
@@ -16623,7 +16634,7 @@
       <c r="AH193" s="3"/>
       <c r="AI193" s="3"/>
     </row>
-    <row r="194" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>68</v>
       </c>
@@ -16688,7 +16699,7 @@
       <c r="AH194" s="3"/>
       <c r="AI194" s="3"/>
     </row>
-    <row r="195" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="5" t="s">
         <v>692</v>
@@ -16751,7 +16762,7 @@
       <c r="AH195" s="3"/>
       <c r="AI195" s="3"/>
     </row>
-    <row r="196" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="5" t="s">
         <v>693</v>
@@ -16814,7 +16825,7 @@
       <c r="AH196" s="3"/>
       <c r="AI196" s="3"/>
     </row>
-    <row r="197" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="5"/>
       <c r="C197" s="4"/>
@@ -16851,7 +16862,7 @@
       <c r="AH197" s="3"/>
       <c r="AI197" s="3"/>
     </row>
-    <row r="198" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>68</v>
       </c>
@@ -16919,7 +16930,7 @@
       <c r="AI198" s="3"/>
       <c r="AJ198" s="3"/>
     </row>
-    <row r="199" spans="1:38" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:38" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="5" t="s">
         <v>831</v>
@@ -16985,7 +16996,7 @@
       <c r="AI199" s="3"/>
       <c r="AJ199" s="3"/>
     </row>
-    <row r="200" spans="1:38" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:38" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="5" t="s">
         <v>832</v>
@@ -17047,7 +17058,7 @@
       <c r="AI200" s="3"/>
       <c r="AJ200" s="3"/>
     </row>
-    <row r="201" spans="1:38" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:38" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="5" t="s">
         <v>833</v>
@@ -17112,7 +17123,7 @@
       <c r="AH201" s="3"/>
       <c r="AI201" s="3"/>
     </row>
-    <row r="202" spans="1:38" ht="22.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:38" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="5" t="s">
         <v>834</v>
@@ -17173,7 +17184,7 @@
       <c r="AH202" s="3"/>
       <c r="AI202" s="3"/>
     </row>
-    <row r="203" spans="1:38" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:38" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="5"/>
       <c r="C203" s="4"/>
@@ -17210,7 +17221,7 @@
       <c r="AH203" s="3"/>
       <c r="AI203" s="3"/>
     </row>
-    <row r="204" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>65</v>
       </c>
@@ -17326,7 +17337,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="205" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="5" t="s">
         <v>634</v>
@@ -17440,7 +17451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
       <c r="B206" s="18" t="s">
         <v>635</v>
@@ -17546,7 +17557,7 @@
       <c r="AK206" s="3"/>
       <c r="AL206" s="3"/>
     </row>
-    <row r="207" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
       <c r="B207" s="18" t="s">
         <v>636</v>
@@ -17652,7 +17663,7 @@
       <c r="AK207" s="3"/>
       <c r="AL207" s="3"/>
     </row>
-    <row r="208" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="5" t="s">
         <v>737</v>
@@ -17744,7 +17755,7 @@
       <c r="AK208" s="3"/>
       <c r="AL208" s="3"/>
     </row>
-    <row r="209" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="5" t="s">
         <v>738</v>
@@ -17836,7 +17847,7 @@
       <c r="AK209" s="3"/>
       <c r="AL209" s="3"/>
     </row>
-    <row r="210" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="5" t="s">
         <v>637</v>
@@ -17950,7 +17961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -17990,7 +18001,7 @@
       <c r="AK211" s="3"/>
       <c r="AL211" s="3"/>
     </row>
-    <row r="212" spans="1:49" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="48" t="s">
         <v>63</v>
       </c>
@@ -18136,7 +18147,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="213" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A213" s="51"/>
       <c r="B213" s="52" t="s">
         <v>890</v>
@@ -18280,7 +18291,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="214" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A214" s="51"/>
       <c r="B214" s="52" t="s">
         <v>891</v>
@@ -18424,7 +18435,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="215" spans="1:49" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:49" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="19"/>
       <c r="B215" s="7"/>
       <c r="C215" s="19"/>
@@ -18461,7 +18472,7 @@
       <c r="AH215" s="7"/>
       <c r="AI215" s="7"/>
     </row>
-    <row r="216" spans="1:49" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:49" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="48" t="s">
         <v>64</v>
       </c>
@@ -18610,7 +18621,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="217" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A217" s="51"/>
       <c r="B217" s="52" t="s">
         <v>892</v>
@@ -18757,7 +18768,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="218" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A218" s="51"/>
       <c r="B218" s="52" t="s">
         <v>893</v>
@@ -18904,7 +18915,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="219" spans="1:49" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:49" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -18941,7 +18952,7 @@
       <c r="AH219" s="7"/>
       <c r="AI219" s="7"/>
     </row>
-    <row r="220" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A220" s="48" t="s">
         <v>65</v>
       </c>
@@ -19039,7 +19050,7 @@
       <c r="AI220" s="51"/>
       <c r="AJ220" s="51"/>
     </row>
-    <row r="221" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A221" s="51"/>
       <c r="B221" s="52" t="s">
         <v>897</v>
@@ -19135,7 +19146,7 @@
       <c r="AI221" s="51"/>
       <c r="AJ221" s="51"/>
     </row>
-    <row r="222" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A222" s="51"/>
       <c r="B222" s="52" t="s">
         <v>898</v>
@@ -19231,7 +19242,7 @@
       <c r="AI222" s="51"/>
       <c r="AJ222" s="51"/>
     </row>
-    <row r="223" spans="1:49" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:49" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -19268,7 +19279,7 @@
       <c r="AH223" s="7"/>
       <c r="AI223" s="7"/>
     </row>
-    <row r="224" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A224" s="48" t="s">
         <v>65</v>
       </c>
@@ -19366,7 +19377,7 @@
       <c r="AI224" s="51"/>
       <c r="AJ224" s="51"/>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A225" s="51"/>
       <c r="B225" s="52" t="s">
         <v>899</v>
@@ -19462,7 +19473,7 @@
       <c r="AI225" s="51"/>
       <c r="AJ225" s="51"/>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A226" s="51"/>
       <c r="B226" s="52" t="s">
         <v>900</v>
@@ -19558,7 +19569,7 @@
       <c r="AI226" s="51"/>
       <c r="AJ226" s="51"/>
     </row>
-    <row r="227" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -19595,7 +19606,7 @@
       <c r="AH227" s="7"/>
       <c r="AI227" s="7"/>
     </row>
-    <row r="228" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="48" t="s">
         <v>66</v>
       </c>
@@ -19697,7 +19708,7 @@
       <c r="AI228" s="51"/>
       <c r="AJ228" s="51"/>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A229" s="51"/>
       <c r="B229" s="52" t="s">
         <v>901</v>
@@ -19797,7 +19808,7 @@
       <c r="AI229" s="51"/>
       <c r="AJ229" s="51"/>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A230" s="51"/>
       <c r="B230" s="52" t="s">
         <v>902</v>
@@ -19897,7 +19908,7 @@
       <c r="AI230" s="51"/>
       <c r="AJ230" s="51"/>
     </row>
-    <row r="231" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -19934,7 +19945,7 @@
       <c r="AH231" s="7"/>
       <c r="AI231" s="7"/>
     </row>
-    <row r="232" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A232" s="48" t="s">
         <v>102</v>
       </c>
@@ -20036,7 +20047,7 @@
       <c r="AI232" s="51"/>
       <c r="AJ232" s="51"/>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A233" s="51"/>
       <c r="B233" s="52" t="s">
         <v>903</v>
@@ -20136,7 +20147,7 @@
       <c r="AI233" s="51"/>
       <c r="AJ233" s="51"/>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A234" s="51"/>
       <c r="B234" s="52" t="s">
         <v>904</v>
@@ -20236,7 +20247,7 @@
       <c r="AI234" s="51"/>
       <c r="AJ234" s="51"/>
     </row>
-    <row r="235" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -20273,7 +20284,7 @@
       <c r="AH235" s="7"/>
       <c r="AI235" s="7"/>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A236" s="48" t="s">
         <v>67</v>
       </c>
@@ -20363,7 +20374,7 @@
       <c r="AI236" s="51"/>
       <c r="AJ236" s="51"/>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A237" s="51"/>
       <c r="B237" s="52" t="s">
         <v>905</v>
@@ -20451,7 +20462,7 @@
       <c r="AI237" s="51"/>
       <c r="AJ237" s="51"/>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A238" s="51"/>
       <c r="B238" s="52" t="s">
         <v>906</v>
@@ -20539,7 +20550,7 @@
       <c r="AI238" s="51"/>
       <c r="AJ238" s="51"/>
     </row>
-    <row r="239" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -20576,7 +20587,7 @@
       <c r="AH239" s="7"/>
       <c r="AI239" s="7"/>
     </row>
-    <row r="240" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="48" t="s">
         <v>68</v>
       </c>
@@ -20668,7 +20679,7 @@
       <c r="AI240" s="51"/>
       <c r="AJ240" s="51"/>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A241" s="51"/>
       <c r="B241" s="52" t="s">
         <v>907</v>
@@ -20758,7 +20769,7 @@
       <c r="AI241" s="51"/>
       <c r="AJ241" s="51"/>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A242" s="51"/>
       <c r="B242" s="52" t="s">
         <v>908</v>
@@ -20848,7 +20859,7 @@
       <c r="AI242" s="51"/>
       <c r="AJ242" s="51"/>
     </row>
-    <row r="243" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -20885,7 +20896,7 @@
       <c r="AH243" s="7"/>
       <c r="AI243" s="7"/>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A244" s="48" t="s">
         <v>70</v>
       </c>
@@ -21010,7 +21021,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A245" s="51"/>
       <c r="B245" s="52" t="s">
         <v>909</v>
@@ -21133,7 +21144,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A246" s="51"/>
       <c r="B246" s="52" t="s">
         <v>910</v>
@@ -21256,7 +21267,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="247" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -21293,7 +21304,7 @@
       <c r="AH247" s="7"/>
       <c r="AI247" s="7"/>
     </row>
-    <row r="248" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A248" s="48" t="s">
         <v>73</v>
       </c>
@@ -21418,7 +21429,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="249" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A249" s="51"/>
       <c r="B249" s="52" t="s">
         <v>911</v>
@@ -21541,7 +21552,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="250" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A250" s="51"/>
       <c r="B250" s="52" t="s">
         <v>912</v>
@@ -21664,7 +21675,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="251" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -21701,7 +21712,7 @@
       <c r="AH251" s="7"/>
       <c r="AI251" s="7"/>
     </row>
-    <row r="252" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A252" s="48" t="s">
         <v>100</v>
       </c>
@@ -21791,7 +21802,7 @@
       <c r="AI252" s="51"/>
       <c r="AJ252" s="51"/>
     </row>
-    <row r="253" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A253" s="51"/>
       <c r="B253" s="52" t="s">
         <v>913</v>
@@ -21879,7 +21890,7 @@
       <c r="AI253" s="51"/>
       <c r="AJ253" s="51"/>
     </row>
-    <row r="254" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A254" s="51"/>
       <c r="B254" s="52" t="s">
         <v>914</v>
@@ -21967,7 +21978,7 @@
       <c r="AI254" s="51"/>
       <c r="AJ254" s="51"/>
     </row>
-    <row r="255" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:41" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -22004,7 +22015,7 @@
       <c r="AH255" s="7"/>
       <c r="AI255" s="7"/>
     </row>
-    <row r="256" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A256" s="48" t="s">
         <v>103</v>
       </c>
@@ -22086,7 +22097,7 @@
       <c r="AI256" s="51"/>
       <c r="AJ256" s="51"/>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A257" s="51"/>
       <c r="B257" s="52" t="s">
         <v>915</v>
@@ -22166,7 +22177,7 @@
       <c r="AI257" s="51"/>
       <c r="AJ257" s="51"/>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A258" s="51"/>
       <c r="B258" s="52" t="s">
         <v>916</v>
@@ -22246,7 +22257,7 @@
       <c r="AI258" s="51"/>
       <c r="AJ258" s="51"/>
     </row>
-    <row r="259" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -22283,7 +22294,7 @@
       <c r="AH259" s="7"/>
       <c r="AI259" s="7"/>
     </row>
-    <row r="260" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="48" t="s">
         <v>365</v>
       </c>
@@ -22375,7 +22386,7 @@
       <c r="AI260" s="51"/>
       <c r="AJ260" s="51"/>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A261" s="51"/>
       <c r="B261" s="52" t="s">
         <v>917</v>
@@ -22465,7 +22476,7 @@
       <c r="AI261" s="51"/>
       <c r="AJ261" s="51"/>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A262" s="51"/>
       <c r="B262" s="52" t="s">
         <v>918</v>
@@ -22555,7 +22566,7 @@
       <c r="AI262" s="51"/>
       <c r="AJ262" s="51"/>
     </row>
-    <row r="263" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:36" s="82" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -22592,7 +22603,7 @@
       <c r="AH263" s="7"/>
       <c r="AI263" s="7"/>
     </row>
-    <row r="264" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A264" s="48" t="s">
         <v>183</v>
       </c>
@@ -22688,7 +22699,7 @@
       <c r="AI264" s="51"/>
       <c r="AJ264" s="51"/>
     </row>
-    <row r="265" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A265" s="51"/>
       <c r="B265" s="52" t="s">
         <v>919</v>
@@ -22782,7 +22793,7 @@
       <c r="AI265" s="51"/>
       <c r="AJ265" s="51"/>
     </row>
-    <row r="266" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A266" s="51"/>
       <c r="B266" s="52" t="s">
         <v>920</v>
@@ -22876,7 +22887,7 @@
       <c r="AI266" s="51"/>
       <c r="AJ266" s="51"/>
     </row>
-    <row r="267" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -22913,7 +22924,7 @@
       <c r="AH267" s="3"/>
       <c r="AI267" s="3"/>
     </row>
-    <row r="268" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="96" t="s">
         <v>69</v>
       </c>
@@ -23016,7 +23027,7 @@
       <c r="AH268" s="3"/>
       <c r="AI268" s="3"/>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
       <c r="B269" s="18" t="s">
         <v>667</v>
@@ -23117,7 +23128,7 @@
       <c r="AH269" s="3"/>
       <c r="AI269" s="3"/>
     </row>
-    <row r="270" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -23154,7 +23165,7 @@
       <c r="AH270" s="3"/>
       <c r="AI270" s="3"/>
     </row>
-    <row r="271" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>70</v>
       </c>
@@ -23239,7 +23250,7 @@
       <c r="AH271" s="3"/>
       <c r="AI271" s="3"/>
     </row>
-    <row r="272" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A272" s="3"/>
       <c r="B272" s="5" t="s">
         <v>698</v>
@@ -23322,7 +23333,7 @@
       <c r="AH272" s="3"/>
       <c r="AI272" s="3"/>
     </row>
-    <row r="273" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -23359,7 +23370,7 @@
       <c r="AH273" s="3"/>
       <c r="AI273" s="3"/>
     </row>
-    <row r="274" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>73</v>
       </c>
@@ -23444,7 +23455,7 @@
       <c r="AH274" s="3"/>
       <c r="AI274" s="3"/>
     </row>
-    <row r="275" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A275" s="3"/>
       <c r="B275" s="5" t="s">
         <v>704</v>
@@ -23527,7 +23538,7 @@
       <c r="AH275" s="3"/>
       <c r="AI275" s="3"/>
     </row>
-    <row r="276" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -23564,7 +23575,7 @@
       <c r="AH276" s="3"/>
       <c r="AI276" s="3"/>
     </row>
-    <row r="277" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>100</v>
       </c>
@@ -23661,7 +23672,7 @@
       <c r="AH277" s="3"/>
       <c r="AI277" s="3"/>
     </row>
-    <row r="278" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A278" s="3"/>
       <c r="B278" s="5" t="s">
         <v>709</v>
@@ -23756,7 +23767,7 @@
       <c r="AH278" s="3"/>
       <c r="AI278" s="3"/>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -23793,7 +23804,7 @@
       <c r="AH279" s="3"/>
       <c r="AI279" s="3"/>
     </row>
-    <row r="280" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>103</v>
       </c>
@@ -23870,7 +23881,7 @@
       <c r="AH280" s="3"/>
       <c r="AI280" s="3"/>
     </row>
-    <row r="281" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A281" s="3"/>
       <c r="B281" s="5" t="s">
         <v>714</v>
@@ -23941,7 +23952,7 @@
       <c r="AH281" s="3"/>
       <c r="AI281" s="3"/>
     </row>
-    <row r="282" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -23978,7 +23989,7 @@
       <c r="AH282" s="3"/>
       <c r="AI282" s="3"/>
     </row>
-    <row r="283" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>365</v>
       </c>
@@ -24067,7 +24078,7 @@
       <c r="AH283" s="3"/>
       <c r="AI283" s="3"/>
     </row>
-    <row r="284" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A284" s="3"/>
       <c r="B284" s="5" t="s">
         <v>717</v>
@@ -24154,7 +24165,7 @@
       <c r="AH284" s="3"/>
       <c r="AI284" s="3"/>
     </row>
-    <row r="285" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -24191,7 +24202,7 @@
       <c r="AH285" s="3"/>
       <c r="AI285" s="3"/>
     </row>
-    <row r="286" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>183</v>
       </c>
@@ -24289,7 +24300,7 @@
       <c r="AI286" s="3"/>
       <c r="AJ286" s="28"/>
     </row>
-    <row r="287" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A287" s="3"/>
       <c r="B287" s="5" t="s">
         <v>723</v>
@@ -24385,7 +24396,7 @@
       <c r="AI287" s="3"/>
       <c r="AJ287" s="28"/>
     </row>
-    <row r="288" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -24423,7 +24434,7 @@
       <c r="AI288" s="3"/>
       <c r="AJ288" s="36"/>
     </row>
-    <row r="289" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>183</v>
       </c>
@@ -24518,7 +24529,7 @@
       <c r="AH289" s="3"/>
       <c r="AI289" s="3"/>
     </row>
-    <row r="290" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="5" t="s">
         <v>729</v>
@@ -24611,7 +24622,7 @@
       <c r="AH290" s="3"/>
       <c r="AI290" s="3"/>
     </row>
-    <row r="291" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -24648,7 +24659,7 @@
       <c r="AH291" s="3"/>
       <c r="AI291" s="3"/>
     </row>
-    <row r="292" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>200</v>
       </c>
@@ -24741,7 +24752,7 @@
       <c r="AH292" s="3"/>
       <c r="AI292" s="3"/>
     </row>
-    <row r="293" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A293" s="3"/>
       <c r="B293" s="5" t="s">
         <v>735</v>
@@ -24830,7 +24841,7 @@
       <c r="AH293" s="3"/>
       <c r="AI293" s="3"/>
     </row>
-    <row r="294" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -24867,7 +24878,7 @@
       <c r="AH294" s="3"/>
       <c r="AI294" s="3"/>
     </row>
-    <row r="295" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>68</v>
       </c>
@@ -24926,7 +24937,7 @@
       <c r="AH295" s="3"/>
       <c r="AI295" s="3"/>
     </row>
-    <row r="296" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="5" t="s">
         <v>750</v>
@@ -24979,7 +24990,7 @@
       <c r="AH296" s="3"/>
       <c r="AI296" s="3"/>
     </row>
-    <row r="297" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A297" s="3"/>
       <c r="B297" s="5" t="s">
         <v>753</v>
@@ -25032,7 +25043,7 @@
       <c r="AH297" s="3"/>
       <c r="AI297" s="3"/>
     </row>
-    <row r="298" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -25069,7 +25080,7 @@
       <c r="AH298" s="3"/>
       <c r="AI298" s="3"/>
     </row>
-    <row r="299" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>69</v>
       </c>
@@ -25139,7 +25150,7 @@
       <c r="AI299" s="3"/>
       <c r="AJ299" s="28"/>
     </row>
-    <row r="300" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A300" s="3"/>
       <c r="B300" s="5" t="s">
         <v>755</v>
@@ -25201,7 +25212,7 @@
       <c r="AI300" s="3"/>
       <c r="AJ300" s="28"/>
     </row>
-    <row r="301" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A301" s="3"/>
       <c r="B301" s="5" t="s">
         <v>760</v>
@@ -25252,7 +25263,7 @@
       <c r="AH301" s="3"/>
       <c r="AI301" s="3"/>
     </row>
-    <row r="302" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -25289,7 +25300,7 @@
       <c r="AH302" s="3"/>
       <c r="AI302" s="3"/>
     </row>
-    <row r="303" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>70</v>
       </c>
@@ -25366,7 +25377,7 @@
       <c r="AH303" s="3"/>
       <c r="AI303" s="3"/>
     </row>
-    <row r="304" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A304" s="3"/>
       <c r="B304" s="18" t="s">
         <v>768</v>
@@ -25435,7 +25446,7 @@
       <c r="AH304" s="3"/>
       <c r="AI304" s="3"/>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A305" s="3"/>
       <c r="B305" s="18" t="s">
         <v>772</v>
@@ -25504,7 +25515,7 @@
       <c r="AH305" s="3"/>
       <c r="AI305" s="3"/>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -25541,7 +25552,7 @@
       <c r="AH306" s="3"/>
       <c r="AI306" s="3"/>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>73</v>
       </c>
@@ -25610,7 +25621,7 @@
       <c r="AH307" s="3"/>
       <c r="AI307" s="3"/>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="5" t="s">
         <v>776</v>
@@ -25671,7 +25682,7 @@
       <c r="AH308" s="3"/>
       <c r="AI308" s="3"/>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A309" s="3"/>
       <c r="B309" s="5" t="s">
         <v>777</v>
@@ -25732,7 +25743,7 @@
       <c r="AH309" s="3"/>
       <c r="AI309" s="3"/>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -25769,7 +25780,7 @@
       <c r="AH310" s="3"/>
       <c r="AI310" s="3"/>
     </row>
-    <row r="311" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>100</v>
       </c>
@@ -25872,7 +25883,7 @@
       <c r="AH311" s="3"/>
       <c r="AI311" s="3"/>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A312" s="3"/>
       <c r="B312" s="5" t="s">
         <v>779</v>
@@ -25973,7 +25984,7 @@
       <c r="AH312" s="3"/>
       <c r="AI312" s="3"/>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="5" t="s">
         <v>783</v>
@@ -26074,7 +26085,7 @@
       <c r="AH313" s="3"/>
       <c r="AI313" s="3"/>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -26111,7 +26122,7 @@
       <c r="AH314" s="3"/>
       <c r="AI314" s="3"/>
     </row>
-    <row r="315" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>103</v>
       </c>
@@ -26214,7 +26225,7 @@
       <c r="AH315" s="3"/>
       <c r="AI315" s="3"/>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A316" s="3"/>
       <c r="B316" s="5" t="s">
         <v>785</v>
@@ -26313,7 +26324,7 @@
       <c r="AH316" s="3"/>
       <c r="AI316" s="3"/>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A317" s="3"/>
       <c r="B317" s="5" t="s">
         <v>787</v>
@@ -26412,7 +26423,7 @@
       <c r="AH317" s="3"/>
       <c r="AI317" s="3"/>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -26449,7 +26460,7 @@
       <c r="AH318" s="3"/>
       <c r="AI318" s="3"/>
     </row>
-    <row r="319" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>365</v>
       </c>
@@ -26552,7 +26563,7 @@
       <c r="AH319" s="3"/>
       <c r="AI319" s="3"/>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="5" t="s">
         <v>789</v>
@@ -26651,7 +26662,7 @@
       <c r="AH320" s="3"/>
       <c r="AI320" s="3"/>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="5" t="s">
         <v>790</v>
@@ -26750,7 +26761,7 @@
       <c r="AH321" s="3"/>
       <c r="AI321" s="3"/>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -26787,7 +26798,7 @@
       <c r="AH322" s="3"/>
       <c r="AI322" s="3"/>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>183</v>
       </c>
@@ -26856,7 +26867,7 @@
       <c r="AH323" s="3"/>
       <c r="AI323" s="3"/>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A324" s="3"/>
       <c r="B324" s="5" t="s">
         <v>792</v>
@@ -26917,7 +26928,7 @@
       <c r="AH324" s="3"/>
       <c r="AI324" s="3"/>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A325" s="3"/>
       <c r="B325" s="5" t="s">
         <v>793</v>
@@ -26978,7 +26989,7 @@
       <c r="AH325" s="3"/>
       <c r="AI325" s="3"/>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -27015,7 +27026,7 @@
       <c r="AH326" s="3"/>
       <c r="AI326" s="3"/>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>200</v>
       </c>
@@ -27084,7 +27095,7 @@
       <c r="AH327" s="3"/>
       <c r="AI327" s="3"/>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A328" s="3"/>
       <c r="B328" s="5" t="s">
         <v>795</v>
@@ -27145,7 +27156,7 @@
       <c r="AH328" s="3"/>
       <c r="AI328" s="3"/>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A329" s="3"/>
       <c r="B329" s="5" t="s">
         <v>796</v>
@@ -27206,7 +27217,7 @@
       <c r="AH329" s="3"/>
       <c r="AI329" s="3"/>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -27243,7 +27254,7 @@
       <c r="AH330" s="3"/>
       <c r="AI330" s="3"/>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>233</v>
       </c>
@@ -27311,7 +27322,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A332" s="3"/>
       <c r="B332" s="5" t="s">
         <v>841</v>
@@ -27377,7 +27388,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
       <c r="B333" s="5" t="s">
         <v>842</v>
@@ -27443,7 +27454,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
       <c r="B334" s="5" t="s">
         <v>843</v>
@@ -27509,7 +27520,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A335" s="3"/>
       <c r="B335" s="5" t="s">
         <v>844</v>
@@ -27575,7 +27586,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -27599,7 +27610,7 @@
       <c r="U336" s="3"/>
       <c r="V336" s="3"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>233</v>
       </c>
@@ -27628,7 +27639,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338" s="3"/>
       <c r="B338" s="5" t="s">
         <v>848</v>
@@ -27655,7 +27666,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339" s="3"/>
       <c r="B339" s="5" t="s">
         <v>851</v>
@@ -27682,7 +27693,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -27693,10 +27704,10 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
     </row>
-    <row r="413" spans="36:36" x14ac:dyDescent="0.35">
+    <row r="413" spans="36:36" x14ac:dyDescent="0.3">
       <c r="AJ413" s="28"/>
     </row>
-    <row r="414" spans="36:36" x14ac:dyDescent="0.35">
+    <row r="414" spans="36:36" x14ac:dyDescent="0.3">
       <c r="AJ414" s="28"/>
     </row>
   </sheetData>
